--- a/results/I2_N10_T100_C200_0_res.xlsx
+++ b/results/I2_N10_T100_C200_0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1898.741735297627</v>
+        <v>1897.65505681613</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.9539999961853</v>
+        <v>3600.104000091553</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9981434274938473</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.32581425324057</v>
+        <v>34.57341461533915</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.2014476697334</v>
+        <v>9.63892527268359</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.05736871394382</v>
+        <v>5.161072022533894</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1867.560000000176</v>
+        <v>1760.839495450941</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>106.72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,13 +584,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9999992613119201</v>
       </c>
     </row>
     <row r="3">
@@ -598,10 +598,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9999992415447263</v>
       </c>
     </row>
     <row r="4">
@@ -609,32 +609,43 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9999992415447263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9999992463605359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9999992460033931</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9999992460033931</v>
       </c>
     </row>
   </sheetData>
@@ -678,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9999989901889335</v>
       </c>
     </row>
     <row r="3">
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -714,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9999989932402238</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9999989930089953</v>
       </c>
     </row>
     <row r="8">
@@ -747,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9999992414784187</v>
       </c>
     </row>
     <row r="9">
@@ -755,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9999989926838936</v>
       </c>
     </row>
     <row r="12">
@@ -802,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9999989933652151</v>
       </c>
     </row>
     <row r="14">
@@ -810,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9999992424712396</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1039,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.31828573763292</v>
+        <v>30.00000060812723</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>16.77979012220845</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>30.34885527085027</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.48407906801077</v>
+        <v>34.19575939745179</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.16886835983306</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.91861897842506</v>
+        <v>30.60033263266492</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.78369862833829</v>
+        <v>35.52673167679943</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.23819394183</v>
+        <v>31.94987179065701</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>32.61192884949317</v>
       </c>
     </row>
     <row r="13">
@@ -1149,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,13 +1192,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1198,13 +1209,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9999992366642211</v>
       </c>
     </row>
     <row r="4">
@@ -1212,24 +1223,24 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999992366642211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1237,27 +1248,27 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9999992436642211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1271,10 +1282,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9999992436642211</v>
       </c>
     </row>
     <row r="9">
@@ -1285,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1293,44 +1304,72 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9999992459059904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9999992416642211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>8</v>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9999992455488476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9999992416642211</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9999992455488476</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>191.4200000000158</v>
+        <v>109.9450841535346</v>
       </c>
     </row>
     <row r="8">
@@ -1443,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>198.2700000000171</v>
+        <v>117.5900858198941</v>
       </c>
     </row>
     <row r="9">
@@ -1454,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>197.9850000000145</v>
+        <v>113.2700789873251</v>
       </c>
     </row>
     <row r="10">
@@ -1465,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>199.5900000000172</v>
+        <v>119.1550909354643</v>
       </c>
     </row>
     <row r="11">
@@ -1476,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.15</v>
+        <v>115.8050829176993</v>
       </c>
     </row>
     <row r="12">
@@ -1487,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000001128</v>
+        <v>67.77500000000057</v>
       </c>
     </row>
     <row r="13">
@@ -1498,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000001302</v>
+        <v>73.77000000000091</v>
       </c>
     </row>
     <row r="14">
@@ -1509,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000001288</v>
+        <v>74.03500000000113</v>
       </c>
     </row>
     <row r="15">
@@ -1520,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000001222</v>
+        <v>73.04500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1531,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000001208</v>
+        <v>72.6650000000008</v>
       </c>
     </row>
     <row r="17">
@@ -1542,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.9200000000028</v>
+        <v>222.0750000000006</v>
       </c>
     </row>
     <row r="18">
@@ -1553,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10500000000329</v>
+        <v>222.1150000000013</v>
       </c>
     </row>
     <row r="19">
@@ -1564,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91500000000374</v>
+        <v>202.7400000000002</v>
       </c>
     </row>
     <row r="20">
@@ -1575,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.49000000000147</v>
+        <v>219.3699999999978</v>
       </c>
     </row>
     <row r="21">
@@ -1586,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43500000000373</v>
+        <v>206.8800000000007</v>
       </c>
     </row>
     <row r="22">
@@ -1597,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>216.0649999999991</v>
+        <v>227.9950381438653</v>
       </c>
     </row>
     <row r="23">
@@ -1608,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>226.7</v>
+        <v>244.3400385186628</v>
       </c>
     </row>
     <row r="24">
@@ -1619,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>223.7649999999973</v>
+        <v>234.4450396278787</v>
       </c>
     </row>
     <row r="25">
@@ -1630,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>235.3399999999984</v>
+        <v>247.3300461413634</v>
       </c>
     </row>
     <row r="26">
@@ -1641,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>218.460000000001</v>
+        <v>238.4350405598243</v>
       </c>
     </row>
     <row r="27">
@@ -1652,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>224.1800000000029</v>
+        <v>69.88000000000102</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>224.6650000000068</v>
+        <v>76.31999999999971</v>
       </c>
     </row>
     <row r="29">
@@ -1674,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>201.115000000008</v>
+        <v>72.41000000000024</v>
       </c>
     </row>
     <row r="30">
@@ -1685,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>218.9700000000043</v>
+        <v>72.64500000000044</v>
       </c>
     </row>
     <row r="31">
@@ -1696,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>207.1050000000031</v>
+        <v>72.88999999999605</v>
       </c>
     </row>
     <row r="32">
@@ -1707,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>175.1550000000005</v>
       </c>
     </row>
     <row r="33">
@@ -1718,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3450000000078</v>
+        <v>186.0100000000011</v>
       </c>
     </row>
     <row r="34">
@@ -1729,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7050000000081</v>
+        <v>167.8250000000007</v>
       </c>
     </row>
     <row r="35">
@@ -1740,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3250000000034</v>
+        <v>181.8799999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1751,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2150000000037</v>
+        <v>167.4450000000012</v>
       </c>
     </row>
     <row r="37">
@@ -1762,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>274.4950000000165</v>
+        <v>193.0198886276104</v>
       </c>
     </row>
     <row r="38">
@@ -1773,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>282.990000000018</v>
+        <v>202.3098808833579</v>
       </c>
     </row>
     <row r="39">
@@ -1784,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>275.9600000000148</v>
+        <v>191.2448852594432</v>
       </c>
     </row>
     <row r="40">
@@ -1795,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>289.3600000000195</v>
+        <v>208.9248792980417</v>
       </c>
     </row>
     <row r="41">
@@ -1806,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>285.0050000000174</v>
+        <v>197.6598826915338</v>
       </c>
     </row>
     <row r="42">
@@ -1817,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>342.4200000000158</v>
+        <v>318.89498246236</v>
       </c>
     </row>
     <row r="43">
@@ -1828,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>362.15</v>
+        <v>340.1499928252304</v>
       </c>
     </row>
     <row r="44">
@@ -1839,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>335.7800000000145</v>
+        <v>312.7949770808443</v>
       </c>
     </row>
     <row r="45">
@@ -1850,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>353.1300000000192</v>
+        <v>333.3499750427364</v>
       </c>
     </row>
     <row r="46">
@@ -1861,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>343.9350000000177</v>
+        <v>309.5049836951508</v>
       </c>
     </row>
     <row r="47">
@@ -1872,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>143.4349999999999</v>
+        <v>155.3650000000006</v>
       </c>
     </row>
     <row r="48">
@@ -1883,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>146.6449999999994</v>
+        <v>164.2849999999969</v>
       </c>
     </row>
     <row r="49">
@@ -1894,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>141.4449999999994</v>
+        <v>152.1249999999985</v>
       </c>
     </row>
     <row r="50">
@@ -1905,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>151.3850000000003</v>
+        <v>163.3750000000002</v>
       </c>
     </row>
     <row r="51">
@@ -1916,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>137.6450000000005</v>
+        <v>157.6199999999972</v>
       </c>
     </row>
     <row r="52">
@@ -1927,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>57.95</v>
+        <v>250.9700268946929</v>
       </c>
     </row>
     <row r="53">
@@ -1938,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>58.67999999999928</v>
+        <v>260.9900150275983</v>
       </c>
     </row>
     <row r="54">
@@ -1949,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>61.72999999999927</v>
+        <v>252.9750000000014</v>
       </c>
     </row>
     <row r="55">
@@ -1960,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>60.65499999999928</v>
+        <v>269.5800000000011</v>
       </c>
     </row>
     <row r="56">
@@ -1971,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>52.91499999999927</v>
+        <v>250.5750000000028</v>
       </c>
     </row>
     <row r="57">
@@ -1982,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>342.4200000000158</v>
+        <v>318.89498246236</v>
       </c>
     </row>
     <row r="58">
@@ -1993,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>362.15</v>
+        <v>340.1499928252304</v>
       </c>
     </row>
     <row r="59">
@@ -2004,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>335.7800000000145</v>
+        <v>312.7949770808443</v>
       </c>
     </row>
     <row r="60">
@@ -2015,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>353.1300000000192</v>
+        <v>333.3499750427364</v>
       </c>
     </row>
     <row r="61">
@@ -2026,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>343.9350000000177</v>
+        <v>309.5049836951508</v>
       </c>
     </row>
     <row r="62">
@@ -2037,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>216.0649999999991</v>
+        <v>227.9950269380961</v>
       </c>
     </row>
     <row r="63">
@@ -2048,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>226.7</v>
+        <v>244.3400222023606</v>
       </c>
     </row>
     <row r="64">
@@ -2059,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>223.7649999999973</v>
+        <v>234.445023910795</v>
       </c>
     </row>
     <row r="65">
@@ -2070,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>235.3399999999984</v>
+        <v>247.3300283556398</v>
       </c>
     </row>
     <row r="66">
@@ -2081,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>218.460000000001</v>
+        <v>238.435019262756</v>
       </c>
     </row>
     <row r="67">
@@ -2092,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>224.1800000000029</v>
+        <v>222.0749324239198</v>
       </c>
     </row>
     <row r="68">
@@ -2103,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>224.6650000000068</v>
+        <v>222.1149414192075</v>
       </c>
     </row>
     <row r="69">
@@ -2114,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>201.115000000008</v>
+        <v>202.7399487278771</v>
       </c>
     </row>
     <row r="70">
@@ -2125,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>218.9700000000043</v>
+        <v>219.3699432780274</v>
       </c>
     </row>
     <row r="71">
@@ -2136,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>207.1050000000031</v>
+        <v>206.8799501004693</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>142.4200000000158</v>
+        <v>118.89498246236</v>
       </c>
     </row>
     <row r="3">
@@ -2194,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>162.15</v>
+        <v>140.1499928252304</v>
       </c>
     </row>
     <row r="4">
@@ -2205,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7800000000145</v>
+        <v>112.7949770808443</v>
       </c>
     </row>
     <row r="5">
@@ -2216,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>153.1300000000192</v>
+        <v>133.3499750427364</v>
       </c>
     </row>
     <row r="6">
@@ -2227,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>143.9350000000177</v>
+        <v>109.5049836951508</v>
       </c>
     </row>
     <row r="7">
@@ -2238,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.06499999999906</v>
+        <v>27.99502693809609</v>
       </c>
     </row>
     <row r="8">
@@ -2249,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>26.7</v>
+        <v>44.34002220236056</v>
       </c>
     </row>
     <row r="9">
@@ -2260,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>23.76499999999731</v>
+        <v>34.44502391079496</v>
       </c>
     </row>
     <row r="10">
@@ -2271,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>35.33999999999838</v>
+        <v>47.33002835563977</v>
       </c>
     </row>
     <row r="11">
@@ -2282,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>18.46000000000103</v>
+        <v>38.43501926275604</v>
       </c>
     </row>
     <row r="12">
@@ -2293,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>24.18000000000291</v>
+        <v>22.07493242391978</v>
       </c>
     </row>
     <row r="13">
@@ -2304,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>24.66500000000678</v>
+        <v>22.11494141920749</v>
       </c>
     </row>
     <row r="14">
@@ -2315,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1.115000000007967</v>
+        <v>2.739948727877115</v>
       </c>
     </row>
     <row r="15">
@@ -2326,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>18.97000000000435</v>
+        <v>19.3699432780274</v>
       </c>
     </row>
     <row r="16">
@@ -2337,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.105000000003088</v>
+        <v>6.879950100469331</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="8">
@@ -2450,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="9">
@@ -2461,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="10">
@@ -2472,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="11">
@@ -2483,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="12">
@@ -2937,7 +2976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2964,10 +3003,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2975,10 +3014,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2986,10 +3025,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2997,10 +3036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3008,10 +3047,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3022,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -3030,10 +3069,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -3041,10 +3080,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -3052,10 +3091,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -3063,10 +3102,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -3074,10 +3113,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3088,7 +3127,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3096,10 +3135,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -3107,10 +3146,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -3118,10 +3157,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -3129,10 +3168,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -3143,7 +3182,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -3151,10 +3190,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -3162,10 +3201,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -3173,10 +3212,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -3184,12 +3223,23 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T100_C200_0_res.xlsx
+++ b/results/I2_N10_T100_C200_0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1897.65505681613</v>
+        <v>1897.655051865421</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3600.104000091553</v>
+        <v>43201.27999997139</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9981434274938473</v>
+        <v>0.9939756911639347</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.57341461533915</v>
+        <v>34.57340989130696</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.63892527268359</v>
+        <v>9.638925571944322</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.161072022533894</v>
+        <v>5.161072095116888</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999992613119201</v>
+        <v>0.9999993035336954</v>
       </c>
     </row>
     <row r="3">
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999992415447263</v>
+        <v>0.9999992416642211</v>
       </c>
     </row>
     <row r="4">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999992415447263</v>
+        <v>0.9999992465447263</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999992463605359</v>
+        <v>0.9999992614649107</v>
       </c>
     </row>
     <row r="6">
@@ -634,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999992460033931</v>
+        <v>0.9999992614649107</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999992460033931</v>
+        <v>0.9999992614649107</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999989901889335</v>
+        <v>0.9999989957522734</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999989932402238</v>
+        <v>0.9999989997988441</v>
       </c>
     </row>
     <row r="6">
@@ -736,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9999992519658126</v>
       </c>
     </row>
     <row r="7">
@@ -747,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999989930089953</v>
+        <v>0.9999990044799596</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999992414784187</v>
+        <v>0.9999992499227738</v>
       </c>
     </row>
     <row r="9">
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9999992587375603</v>
       </c>
     </row>
     <row r="10">
@@ -791,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999989926838936</v>
+        <v>0.9999990020565163</v>
       </c>
     </row>
     <row r="12">
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999989933652151</v>
+        <v>0.9999990034391621</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999992424712396</v>
+        <v>0.9999992526570546</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.77979012220845</v>
+        <v>23.35994183559229</v>
       </c>
     </row>
     <row r="5">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999992366642211</v>
+        <v>0.9999992415447263</v>
       </c>
     </row>
     <row r="5">
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999992436642211</v>
+        <v>0.9999992424975545</v>
       </c>
     </row>
     <row r="7">
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999992436642211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999992459059904</v>
+        <v>0.9999992610103652</v>
       </c>
     </row>
     <row r="11">
@@ -1341,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999992455488476</v>
+        <v>0.9999992610103652</v>
       </c>
     </row>
     <row r="13">
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999992416642211</v>
+        <v>0.9999992465447263</v>
       </c>
     </row>
     <row r="14">
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999992455488476</v>
+        <v>0.9999992610103652</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.77500000000057</v>
+        <v>67.77500000000146</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>73.77000000000091</v>
+        <v>73.77000000000226</v>
       </c>
     </row>
     <row r="14">
@@ -1548,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>74.03500000000113</v>
+        <v>74.03499999999985</v>
       </c>
     </row>
     <row r="15">
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>73.04500000000073</v>
+        <v>73.04500000000007</v>
       </c>
     </row>
     <row r="16">
@@ -1570,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>72.6650000000008</v>
+        <v>72.66500000000087</v>
       </c>
     </row>
     <row r="17">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>175.1550000000005</v>
+        <v>175.1550000000002</v>
       </c>
     </row>
     <row r="33">
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.8250000000007</v>
+        <v>167.8250000000008</v>
       </c>
     </row>
     <row r="35">
@@ -1779,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>181.8799999999998</v>
+        <v>181.88</v>
       </c>
     </row>
     <row r="36">
